--- a/results/GehlerShi.xlsx
+++ b/results/GehlerShi.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$A$1:$AA$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="40">
   <si>
     <t>k1</t>
   </si>
@@ -169,12 +169,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -189,16 +189,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,148 +555,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="true"/>
+    <col min="3" max="3" width="15.28515625" customWidth="true"/>
+    <col min="4" max="4" width="18.140625" customWidth="true"/>
+    <col min="5" max="5" width="8.140625" customWidth="true"/>
+    <col min="6" max="6" width="12.42578125" customWidth="true"/>
+    <col min="7" max="7" width="15.140625" customWidth="true"/>
+    <col min="8" max="8" width="11.85546875" customWidth="true"/>
+    <col min="9" max="9" width="12.5703125" customWidth="true"/>
+    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="11" max="11" width="13.85546875" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="8.7109375" style="1" customWidth="true"/>
+    <col min="16" max="16" width="9.7109375" style="1" customWidth="true"/>
+    <col min="17" max="17" width="10.42578125" style="1" customWidth="true"/>
+    <col min="18" max="18" width="8.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="10.7109375" customWidth="true"/>
+    <col min="21" max="21" width="10" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.28515625" customWidth="true"/>
+    <col min="24" max="24" width="12.85546875" customWidth="true"/>
+    <col min="25" max="25" width="14.28515625" customWidth="true"/>
+    <col min="26" max="26" width="12.28515625" customWidth="true"/>
+    <col min="27" max="27" width="13.85546875" customWidth="true"/>
+    <col min="2" max="2" width="3.140625" customWidth="true"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="true"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -700,7 +711,7 @@
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>9.910617E-3</v>
+        <v>0.009910617</v>
       </c>
       <c r="M2" s="1">
         <v>2.77989</v>
@@ -724,7 +735,7 @@
         <v>17.05491</v>
       </c>
       <c r="T2">
-        <v>1.218967E-2</v>
+        <v>0.01218967</v>
       </c>
       <c r="U2">
         <v>3.5719349999999999</v>
@@ -748,30 +759,30 @@
         <v>21.012229999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -783,7 +794,7 @@
         <v>0.01</v>
       </c>
       <c r="L3">
-        <v>4.1738730000000002E-2</v>
+        <v>0.041738730000000002</v>
       </c>
       <c r="M3" s="1">
         <v>2.8067410000000002</v>
@@ -807,7 +818,7 @@
         <v>22.03886</v>
       </c>
       <c r="T3">
-        <v>4.4564109999999997E-2</v>
+        <v>0.044564109999999997</v>
       </c>
       <c r="U3">
         <v>3.485738</v>
@@ -831,30 +842,30 @@
         <v>28.852340000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -866,7 +877,7 @@
         <v>0.01</v>
       </c>
       <c r="L4">
-        <v>5.8523470000000001E-2</v>
+        <v>0.058523470000000001</v>
       </c>
       <c r="M4" s="1">
         <v>2.8211740000000001</v>
@@ -890,7 +901,7 @@
         <v>41.147060000000003</v>
       </c>
       <c r="T4">
-        <v>8.1764500000000004E-2</v>
+        <v>0.081764500000000004</v>
       </c>
       <c r="U4">
         <v>3.5536469999999998</v>
@@ -914,30 +925,30 @@
         <v>46.805399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -949,7 +960,7 @@
         <v>0.01</v>
       </c>
       <c r="L5">
-        <v>3.1242099999999998E-2</v>
+        <v>0.031242099999999998</v>
       </c>
       <c r="M5" s="1">
         <v>2.8393820000000001</v>
@@ -973,7 +984,7 @@
         <v>24.990369999999999</v>
       </c>
       <c r="T5">
-        <v>4.4750499999999999E-2</v>
+        <v>0.044750499999999999</v>
       </c>
       <c r="U5">
         <v>3.5844010000000002</v>
@@ -997,30 +1008,30 @@
         <v>27.037780000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H6">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1032,7 +1043,7 @@
         <v>0.01</v>
       </c>
       <c r="L6">
-        <v>8.9160149999999994E-2</v>
+        <v>0.089160149999999994</v>
       </c>
       <c r="M6" s="1">
         <v>2.8637999999999999</v>
@@ -1080,30 +1091,30 @@
         <v>28.423549999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H7">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -1115,7 +1126,7 @@
         <v>0.01</v>
       </c>
       <c r="L7">
-        <v>3.318579E-2</v>
+        <v>0.03318579</v>
       </c>
       <c r="M7" s="1">
         <v>2.8648419999999999</v>
@@ -1139,7 +1150,7 @@
         <v>22.418890000000001</v>
       </c>
       <c r="T7">
-        <v>4.5375909999999998E-2</v>
+        <v>0.045375909999999998</v>
       </c>
       <c r="U7">
         <v>3.6387079999999998</v>
@@ -1163,30 +1174,30 @@
         <v>30.797740000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H8">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1198,7 +1209,7 @@
         <v>0.01</v>
       </c>
       <c r="L8">
-        <v>3.8413509999999998E-2</v>
+        <v>0.038413509999999998</v>
       </c>
       <c r="M8" s="1">
         <v>2.8734860000000002</v>
@@ -1222,7 +1233,7 @@
         <v>22.47728</v>
       </c>
       <c r="T8">
-        <v>5.1746500000000001E-2</v>
+        <v>0.051746500000000001</v>
       </c>
       <c r="U8">
         <v>3.664628</v>
@@ -1246,30 +1257,30 @@
         <v>30.159590000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1281,7 +1292,7 @@
         <v>0.01</v>
       </c>
       <c r="L9">
-        <v>5.9066590000000002E-2</v>
+        <v>0.059066590000000002</v>
       </c>
       <c r="M9" s="1">
         <v>2.8827389999999999</v>
@@ -1305,7 +1316,7 @@
         <v>22.017029999999998</v>
       </c>
       <c r="T9">
-        <v>8.4567859999999995E-2</v>
+        <v>0.084567859999999995</v>
       </c>
       <c r="U9">
         <v>3.6337030000000001</v>
@@ -1329,30 +1340,30 @@
         <v>27.206579999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -1364,7 +1375,7 @@
         <v>0.01</v>
       </c>
       <c r="L10">
-        <v>6.8391850000000004E-2</v>
+        <v>0.068391850000000004</v>
       </c>
       <c r="M10" s="1">
         <v>2.89208</v>
@@ -1388,7 +1399,7 @@
         <v>27.417169999999999</v>
       </c>
       <c r="T10">
-        <v>8.1748269999999998E-2</v>
+        <v>0.081748269999999998</v>
       </c>
       <c r="U10">
         <v>3.655392</v>
@@ -1412,30 +1423,30 @@
         <v>52.542230000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H11">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -1447,7 +1458,7 @@
         <v>0.01</v>
       </c>
       <c r="L11">
-        <v>2.9446239999999999E-2</v>
+        <v>0.029446239999999999</v>
       </c>
       <c r="M11" s="1">
         <v>2.8977200000000001</v>
@@ -1471,7 +1482,7 @@
         <v>20.52393</v>
       </c>
       <c r="T11">
-        <v>2.674694E-2</v>
+        <v>0.02674694</v>
       </c>
       <c r="U11">
         <v>3.6853590000000001</v>
@@ -1495,30 +1506,30 @@
         <v>28.334700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1530,7 +1541,7 @@
         <v>0.01</v>
       </c>
       <c r="L12">
-        <v>1.2017109999999999E-2</v>
+        <v>0.012017109999999999</v>
       </c>
       <c r="M12" s="1">
         <v>2.8977659999999998</v>
@@ -1554,7 +1565,7 @@
         <v>18.975180000000002</v>
       </c>
       <c r="T12">
-        <v>1.6626829999999999E-2</v>
+        <v>0.016626829999999999</v>
       </c>
       <c r="U12">
         <v>3.7209500000000002</v>
@@ -1578,30 +1589,30 @@
         <v>34.473790000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1613,7 +1624,7 @@
         <v>0.01</v>
       </c>
       <c r="L13">
-        <v>4.0975570000000003E-2</v>
+        <v>0.040975570000000003</v>
       </c>
       <c r="M13" s="1">
         <v>2.8986040000000002</v>
@@ -1637,7 +1648,7 @@
         <v>64.796300000000002</v>
       </c>
       <c r="T13">
-        <v>4.1203249999999997E-2</v>
+        <v>0.041203249999999997</v>
       </c>
       <c r="U13">
         <v>3.737231</v>
@@ -1661,30 +1672,30 @@
         <v>140.4461</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H14">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -1696,7 +1707,7 @@
         <v>0.01</v>
       </c>
       <c r="L14">
-        <v>3.7963330000000003E-2</v>
+        <v>0.037963330000000003</v>
       </c>
       <c r="M14" s="1">
         <v>2.909189</v>
@@ -1720,7 +1731,7 @@
         <v>21.412949999999999</v>
       </c>
       <c r="T14">
-        <v>5.5033770000000003E-2</v>
+        <v>0.055033770000000003</v>
       </c>
       <c r="U14">
         <v>3.6745610000000002</v>
@@ -1744,30 +1755,30 @@
         <v>27.71125</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H15">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1827,30 +1838,30 @@
         <v>25.633030000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1862,7 +1873,7 @@
         <v>0.01</v>
       </c>
       <c r="L16">
-        <v>5.4897340000000003E-2</v>
+        <v>0.054897340000000003</v>
       </c>
       <c r="M16" s="1">
         <v>2.9238230000000001</v>
@@ -1886,7 +1897,7 @@
         <v>20.638390000000001</v>
       </c>
       <c r="T16">
-        <v>6.6220150000000005E-2</v>
+        <v>0.066220150000000005</v>
       </c>
       <c r="U16">
         <v>3.7257129999999998</v>
@@ -1910,30 +1921,30 @@
         <v>30.398969999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H17">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -1945,7 +1956,7 @@
         <v>0.01</v>
       </c>
       <c r="L17">
-        <v>2.1492250000000001E-2</v>
+        <v>0.021492250000000001</v>
       </c>
       <c r="M17" s="1">
         <v>2.9257330000000001</v>
@@ -1969,7 +1980,7 @@
         <v>37.9452</v>
       </c>
       <c r="T17">
-        <v>2.661558E-2</v>
+        <v>0.02661558</v>
       </c>
       <c r="U17">
         <v>3.655948</v>
@@ -1993,30 +2004,30 @@
         <v>26.366219999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="D18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H18">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -2028,7 +2039,7 @@
         <v>0.01</v>
       </c>
       <c r="L18">
-        <v>3.2674019999999998E-2</v>
+        <v>0.032674019999999998</v>
       </c>
       <c r="M18" s="1">
         <v>2.9357600000000001</v>
@@ -2052,7 +2063,7 @@
         <v>32.792940000000002</v>
       </c>
       <c r="T18">
-        <v>2.8135609999999998E-2</v>
+        <v>0.028135609999999998</v>
       </c>
       <c r="U18">
         <v>3.8619300000000001</v>
@@ -2076,30 +2087,30 @@
         <v>122.5124</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="D19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H19">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2111,7 +2122,7 @@
         <v>0.01</v>
       </c>
       <c r="L19">
-        <v>3.2592509999999998E-2</v>
+        <v>0.032592509999999998</v>
       </c>
       <c r="M19" s="1">
         <v>2.943101</v>
@@ -2135,7 +2146,7 @@
         <v>29.862780000000001</v>
       </c>
       <c r="T19">
-        <v>3.8861859999999998E-2</v>
+        <v>0.038861859999999998</v>
       </c>
       <c r="U19">
         <v>3.7211460000000001</v>
@@ -2159,30 +2170,30 @@
         <v>46.783880000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H20">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2194,7 +2205,7 @@
         <v>0.01</v>
       </c>
       <c r="L20">
-        <v>2.180845E-2</v>
+        <v>0.02180845</v>
       </c>
       <c r="M20" s="1">
         <v>2.9558089999999999</v>
@@ -2218,7 +2229,7 @@
         <v>66.728300000000004</v>
       </c>
       <c r="T20">
-        <v>2.9376739999999998E-2</v>
+        <v>0.029376739999999998</v>
       </c>
       <c r="U20">
         <v>3.7141769999999998</v>
@@ -2242,30 +2253,30 @@
         <v>65.507679999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="D21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H21">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -2277,7 +2288,7 @@
         <v>0.01</v>
       </c>
       <c r="L21">
-        <v>1.416828E-2</v>
+        <v>0.01416828</v>
       </c>
       <c r="M21" s="1">
         <v>2.9597380000000002</v>
@@ -2301,7 +2312,7 @@
         <v>26.712820000000001</v>
       </c>
       <c r="T21">
-        <v>1.8599830000000001E-2</v>
+        <v>0.018599830000000001</v>
       </c>
       <c r="U21">
         <v>3.7343549999999999</v>
@@ -2325,30 +2336,30 @@
         <v>28.43788</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H22">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -2360,7 +2371,7 @@
         <v>0.01</v>
       </c>
       <c r="L22">
-        <v>4.0861729999999999E-2</v>
+        <v>0.040861729999999999</v>
       </c>
       <c r="M22" s="1">
         <v>2.9607579999999998</v>
@@ -2384,7 +2395,7 @@
         <v>77.711219999999997</v>
       </c>
       <c r="T22">
-        <v>5.764594E-2</v>
+        <v>0.05764594</v>
       </c>
       <c r="U22">
         <v>3.6794720000000001</v>
@@ -2408,30 +2419,30 @@
         <v>62.461390000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H23">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -2443,7 +2454,7 @@
         <v>0.01</v>
       </c>
       <c r="L23">
-        <v>1.901607E-2</v>
+        <v>0.01901607</v>
       </c>
       <c r="M23" s="1">
         <v>2.9692280000000002</v>
@@ -2467,7 +2478,7 @@
         <v>30.835419999999999</v>
       </c>
       <c r="T23">
-        <v>2.552418E-2</v>
+        <v>0.02552418</v>
       </c>
       <c r="U23">
         <v>3.740917</v>
@@ -2491,30 +2502,30 @@
         <v>26.89425</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H24">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -2526,7 +2537,7 @@
         <v>0.01</v>
       </c>
       <c r="L24">
-        <v>7.8820020000000005E-2</v>
+        <v>0.078820020000000005</v>
       </c>
       <c r="M24" s="1">
         <v>2.9706480000000002</v>
@@ -2550,7 +2561,7 @@
         <v>30.346489999999999</v>
       </c>
       <c r="T24">
-        <v>8.3571759999999995E-2</v>
+        <v>0.083571759999999995</v>
       </c>
       <c r="U24">
         <v>3.79955</v>
@@ -2574,30 +2585,30 @@
         <v>43.56718</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H25">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2609,7 +2620,7 @@
         <v>0.01</v>
       </c>
       <c r="L25">
-        <v>1.488392E-2</v>
+        <v>0.01488392</v>
       </c>
       <c r="M25" s="1">
         <v>2.9789150000000002</v>
@@ -2633,7 +2644,7 @@
         <v>23.267489999999999</v>
       </c>
       <c r="T25">
-        <v>1.6282209999999998E-2</v>
+        <v>0.016282209999999998</v>
       </c>
       <c r="U25">
         <v>3.8433440000000001</v>
@@ -2657,30 +2668,30 @@
         <v>31.25986</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="D26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H26">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -2692,7 +2703,7 @@
         <v>0.01</v>
       </c>
       <c r="L26">
-        <v>3.252012E-2</v>
+        <v>0.03252012</v>
       </c>
       <c r="M26" s="1">
         <v>2.9847990000000002</v>
@@ -2716,7 +2727,7 @@
         <v>25.797160000000002</v>
       </c>
       <c r="T26">
-        <v>4.222588E-2</v>
+        <v>0.04222588</v>
       </c>
       <c r="U26">
         <v>3.8127110000000002</v>
@@ -2740,30 +2751,30 @@
         <v>51.871279999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="D27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H27">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -2775,7 +2786,7 @@
         <v>0.01</v>
       </c>
       <c r="L27">
-        <v>9.6861370000000002E-2</v>
+        <v>0.096861370000000002</v>
       </c>
       <c r="M27" s="1">
         <v>2.9866980000000001</v>
@@ -2823,30 +2834,30 @@
         <v>32.037050000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="D28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H28">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -2858,7 +2869,7 @@
         <v>0.01</v>
       </c>
       <c r="L28">
-        <v>8.7764129999999996E-2</v>
+        <v>0.087764129999999996</v>
       </c>
       <c r="M28" s="1">
         <v>2.9886270000000001</v>
@@ -2882,7 +2893,7 @@
         <v>27.217780000000001</v>
       </c>
       <c r="T28">
-        <v>9.2274350000000005E-2</v>
+        <v>0.092274350000000005</v>
       </c>
       <c r="U28">
         <v>3.7853940000000001</v>
@@ -2906,30 +2917,30 @@
         <v>47.003459999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="D29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H29">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -2941,7 +2952,7 @@
         <v>0.01</v>
       </c>
       <c r="L29">
-        <v>5.3901159999999997E-2</v>
+        <v>0.053901159999999997</v>
       </c>
       <c r="M29" s="1">
         <v>2.991568</v>
@@ -2965,7 +2976,7 @@
         <v>24.44387</v>
       </c>
       <c r="T29">
-        <v>5.8903900000000002E-2</v>
+        <v>0.058903900000000002</v>
       </c>
       <c r="U29">
         <v>3.7652559999999999</v>
@@ -2989,30 +3000,30 @@
         <v>26.366479999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="D30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H30">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -3024,7 +3035,7 @@
         <v>0.01</v>
       </c>
       <c r="L30">
-        <v>1.338134E-2</v>
+        <v>0.01338134</v>
       </c>
       <c r="M30" s="1">
         <v>3.0011589999999999</v>
@@ -3048,7 +3059,7 @@
         <v>48.551250000000003</v>
       </c>
       <c r="T30">
-        <v>1.5905510000000001E-2</v>
+        <v>0.015905510000000001</v>
       </c>
       <c r="U30">
         <v>4.0325319999999998</v>
@@ -3072,30 +3083,30 @@
         <v>123.7415</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H31">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -3107,7 +3118,7 @@
         <v>0.01</v>
       </c>
       <c r="L31">
-        <v>3.761449E-2</v>
+        <v>0.03761449</v>
       </c>
       <c r="M31" s="1">
         <v>3.0028570000000001</v>
@@ -3131,7 +3142,7 @@
         <v>34.718229999999998</v>
       </c>
       <c r="T31">
-        <v>6.3874180000000003E-2</v>
+        <v>0.063874180000000003</v>
       </c>
       <c r="U31">
         <v>3.8132190000000001</v>
@@ -3155,30 +3166,30 @@
         <v>54.689959999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="D32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H32">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -3190,7 +3201,7 @@
         <v>0.01</v>
       </c>
       <c r="L32">
-        <v>3.345215E-2</v>
+        <v>0.03345215</v>
       </c>
       <c r="M32" s="1">
         <v>3.0081359999999999</v>
@@ -3214,7 +3225,7 @@
         <v>24.77158</v>
       </c>
       <c r="T32">
-        <v>5.0174459999999997E-2</v>
+        <v>0.050174459999999997</v>
       </c>
       <c r="U32">
         <v>3.7951320000000002</v>
@@ -3238,30 +3249,30 @@
         <v>51.209539999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="D33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H33">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -3273,7 +3284,7 @@
         <v>0.01</v>
       </c>
       <c r="L33">
-        <v>1.7648469999999999E-2</v>
+        <v>0.017648469999999999</v>
       </c>
       <c r="M33" s="1">
         <v>3.019517</v>
@@ -3297,7 +3308,7 @@
         <v>82.246080000000006</v>
       </c>
       <c r="T33">
-        <v>1.59188E-2</v>
+        <v>0.0159188</v>
       </c>
       <c r="U33">
         <v>3.7056849999999999</v>
@@ -3321,30 +3332,30 @@
         <v>57.553989999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="D34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -3356,7 +3367,7 @@
         <v>0.01</v>
       </c>
       <c r="L34">
-        <v>4.4307239999999998E-2</v>
+        <v>0.044307239999999998</v>
       </c>
       <c r="M34" s="1">
         <v>3.0253999999999999</v>
@@ -3380,7 +3391,7 @@
         <v>57.450890000000001</v>
       </c>
       <c r="T34">
-        <v>4.276928E-2</v>
+        <v>0.04276928</v>
       </c>
       <c r="U34">
         <v>4.0193390000000004</v>
@@ -3404,30 +3415,30 @@
         <v>112.42010000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="D35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H35">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -3439,7 +3450,7 @@
         <v>0.01</v>
       </c>
       <c r="L35">
-        <v>4.5387869999999997E-2</v>
+        <v>0.045387869999999997</v>
       </c>
       <c r="M35" s="1">
         <v>3.0285690000000001</v>
@@ -3463,7 +3474,7 @@
         <v>29.493120000000001</v>
       </c>
       <c r="T35">
-        <v>6.5335279999999996E-2</v>
+        <v>0.065335279999999996</v>
       </c>
       <c r="U35">
         <v>4.0111569999999999</v>
@@ -3487,30 +3498,30 @@
         <v>111.62269999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="D36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H36">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -3522,7 +3533,7 @@
         <v>0.01</v>
       </c>
       <c r="L36">
-        <v>3.4084860000000002E-2</v>
+        <v>0.034084860000000002</v>
       </c>
       <c r="M36" s="1">
         <v>3.0299700000000001</v>
@@ -3546,7 +3557,7 @@
         <v>24.708100000000002</v>
       </c>
       <c r="T36">
-        <v>4.3222249999999997E-2</v>
+        <v>0.043222249999999997</v>
       </c>
       <c r="U36">
         <v>3.8601109999999998</v>
@@ -3570,30 +3581,30 @@
         <v>54.602710000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="D37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H37">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -3605,7 +3616,7 @@
         <v>0.01</v>
       </c>
       <c r="L37">
-        <v>5.6738690000000001E-2</v>
+        <v>0.056738690000000001</v>
       </c>
       <c r="M37" s="1">
         <v>3.0382739999999999</v>
@@ -3629,7 +3640,7 @@
         <v>45.43732</v>
       </c>
       <c r="T37">
-        <v>7.3086499999999999E-2</v>
+        <v>0.073086499999999999</v>
       </c>
       <c r="U37">
         <v>3.7613460000000001</v>
@@ -3653,30 +3664,30 @@
         <v>28.478560000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="D38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H38">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -3736,30 +3747,30 @@
         <v>44.129109999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H39">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -3771,7 +3782,7 @@
         <v>0.01</v>
       </c>
       <c r="L39">
-        <v>3.5238600000000002E-2</v>
+        <v>0.035238600000000002</v>
       </c>
       <c r="M39" s="1">
         <v>3.0727329999999999</v>
@@ -3795,7 +3806,7 @@
         <v>30.478819999999999</v>
       </c>
       <c r="T39">
-        <v>4.1253039999999998E-2</v>
+        <v>0.041253039999999998</v>
       </c>
       <c r="U39">
         <v>3.9582540000000002</v>
@@ -3819,30 +3830,30 @@
         <v>36.079000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="D40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H40">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -3854,7 +3865,7 @@
         <v>0.01</v>
       </c>
       <c r="L40">
-        <v>4.4954000000000001E-2</v>
+        <v>0.044954000000000001</v>
       </c>
       <c r="M40" s="1">
         <v>3.0727929999999999</v>
@@ -3878,7 +3889,7 @@
         <v>23.13653</v>
       </c>
       <c r="T40">
-        <v>4.2452829999999997E-2</v>
+        <v>0.042452829999999997</v>
       </c>
       <c r="U40">
         <v>3.8976030000000002</v>
@@ -3902,30 +3913,30 @@
         <v>35.067500000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="D41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H41">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -3937,7 +3948,7 @@
         <v>0.01</v>
       </c>
       <c r="L41">
-        <v>5.6272210000000003E-2</v>
+        <v>0.056272210000000003</v>
       </c>
       <c r="M41" s="1">
         <v>3.0745390000000001</v>
@@ -3961,7 +3972,7 @@
         <v>27.914719999999999</v>
       </c>
       <c r="T41">
-        <v>6.5700040000000001E-2</v>
+        <v>0.065700040000000001</v>
       </c>
       <c r="U41">
         <v>3.9125179999999999</v>
@@ -3985,30 +3996,30 @@
         <v>40.7729</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="D42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H42">
-        <v>0.85</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -4020,7 +4031,7 @@
         <v>0.01</v>
       </c>
       <c r="L42">
-        <v>5.3156139999999998E-2</v>
+        <v>0.053156139999999998</v>
       </c>
       <c r="M42" s="1">
         <v>3.0910859999999998</v>
@@ -4044,7 +4055,7 @@
         <v>38.707819999999998</v>
       </c>
       <c r="T42">
-        <v>4.8319099999999997E-2</v>
+        <v>0.048319099999999997</v>
       </c>
       <c r="U42">
         <v>4.0199870000000004</v>
@@ -4068,30 +4079,30 @@
         <v>123.0612</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="D43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H43">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -4103,7 +4114,7 @@
         <v>0.01</v>
       </c>
       <c r="L43">
-        <v>8.3900550000000004E-2</v>
+        <v>0.083900550000000004</v>
       </c>
       <c r="M43" s="1">
         <v>3.091707</v>
@@ -4151,30 +4162,30 @@
         <v>71.349360000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="D44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H44">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -4186,7 +4197,7 @@
         <v>0.01</v>
       </c>
       <c r="L44">
-        <v>8.6274749999999997E-2</v>
+        <v>0.086274749999999997</v>
       </c>
       <c r="M44" s="1">
         <v>3.0960359999999998</v>
@@ -4210,7 +4221,7 @@
         <v>23.144369999999999</v>
       </c>
       <c r="T44">
-        <v>9.9907830000000003E-2</v>
+        <v>0.099907830000000003</v>
       </c>
       <c r="U44">
         <v>3.9922240000000002</v>
@@ -4234,30 +4245,30 @@
         <v>51.286090000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="D45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -4269,7 +4280,7 @@
         <v>0.01</v>
       </c>
       <c r="L45">
-        <v>3.9565599999999999E-2</v>
+        <v>0.039565599999999999</v>
       </c>
       <c r="M45" s="1">
         <v>3.096244</v>
@@ -4293,7 +4304,7 @@
         <v>32.747340000000001</v>
       </c>
       <c r="T45">
-        <v>3.961195E-2</v>
+        <v>0.03961195</v>
       </c>
       <c r="U45">
         <v>3.9418389999999999</v>
@@ -4317,30 +4328,30 @@
         <v>33.29175</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="D46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H46">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -4352,7 +4363,7 @@
         <v>0.01</v>
       </c>
       <c r="L46">
-        <v>5.758477E-2</v>
+        <v>0.05758477</v>
       </c>
       <c r="M46" s="1">
         <v>3.1067459999999998</v>
@@ -4376,7 +4387,7 @@
         <v>20.352260000000001</v>
       </c>
       <c r="T46">
-        <v>6.125767E-2</v>
+        <v>0.06125767</v>
       </c>
       <c r="U46">
         <v>3.9465249999999998</v>
@@ -4400,30 +4411,30 @@
         <v>45.546509999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="E47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H47">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -4435,7 +4446,7 @@
         <v>0.01</v>
       </c>
       <c r="L47">
-        <v>1.004973E-2</v>
+        <v>0.01004973</v>
       </c>
       <c r="M47" s="1">
         <v>3.1153580000000001</v>
@@ -4459,7 +4470,7 @@
         <v>52.417279999999998</v>
       </c>
       <c r="T47">
-        <v>1.424012E-2</v>
+        <v>0.01424012</v>
       </c>
       <c r="U47">
         <v>4.0675939999999997</v>
@@ -4483,30 +4494,30 @@
         <v>97.466499999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="D48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -4518,7 +4529,7 @@
         <v>0.01</v>
       </c>
       <c r="L48">
-        <v>3.1012560000000002E-2</v>
+        <v>0.031012560000000002</v>
       </c>
       <c r="M48" s="1">
         <v>3.1186099999999999</v>
@@ -4542,7 +4553,7 @@
         <v>18.869029999999999</v>
       </c>
       <c r="T48">
-        <v>4.3201629999999998E-2</v>
+        <v>0.043201629999999998</v>
       </c>
       <c r="U48">
         <v>3.9973860000000001</v>
@@ -4566,30 +4577,30 @@
         <v>48.821460000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="D49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -4601,7 +4612,7 @@
         <v>0.01</v>
       </c>
       <c r="L49">
-        <v>2.4670649999999999E-2</v>
+        <v>0.024670649999999999</v>
       </c>
       <c r="M49" s="1">
         <v>3.1210140000000002</v>
@@ -4625,7 +4636,7 @@
         <v>78.861829999999998</v>
       </c>
       <c r="T49">
-        <v>2.8582380000000001E-2</v>
+        <v>0.028582380000000001</v>
       </c>
       <c r="U49">
         <v>4.0552510000000002</v>
@@ -4649,30 +4660,30 @@
         <v>104.6164</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="D50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -4684,7 +4695,7 @@
         <v>0.01</v>
       </c>
       <c r="L50">
-        <v>4.687649E-2</v>
+        <v>0.04687649</v>
       </c>
       <c r="M50" s="1">
         <v>3.121632</v>
@@ -4708,7 +4719,7 @@
         <v>74.716830000000002</v>
       </c>
       <c r="T50">
-        <v>4.4577209999999999E-2</v>
+        <v>0.044577209999999999</v>
       </c>
       <c r="U50">
         <v>3.9123410000000001</v>
@@ -4732,30 +4743,30 @@
         <v>58.026710000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="D51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -4767,7 +4778,7 @@
         <v>0.01</v>
       </c>
       <c r="L51">
-        <v>2.675276E-2</v>
+        <v>0.02675276</v>
       </c>
       <c r="M51" s="1">
         <v>3.152765</v>
@@ -4791,7 +4802,7 @@
         <v>22.928450000000002</v>
       </c>
       <c r="T51">
-        <v>2.5780669999999999E-2</v>
+        <v>0.025780669999999999</v>
       </c>
       <c r="U51">
         <v>4.01417</v>
@@ -4815,30 +4826,30 @@
         <v>28.522010000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="D52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H52">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -4850,7 +4861,7 @@
         <v>0.01</v>
       </c>
       <c r="L52">
-        <v>3.5908910000000002E-2</v>
+        <v>0.035908910000000002</v>
       </c>
       <c r="M52" s="1">
         <v>3.1552340000000001</v>
@@ -4874,7 +4885,7 @@
         <v>21.705580000000001</v>
       </c>
       <c r="T52">
-        <v>4.8441030000000003E-2</v>
+        <v>0.048441030000000003</v>
       </c>
       <c r="U52">
         <v>4.0495330000000003</v>
@@ -4898,30 +4909,30 @@
         <v>39.792079999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="D53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H53">
-        <v>0.85</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="I53">
         <v>5</v>
@@ -4933,7 +4944,7 @@
         <v>0.01</v>
       </c>
       <c r="L53">
-        <v>3.2039100000000001E-2</v>
+        <v>0.032039100000000001</v>
       </c>
       <c r="M53" s="1">
         <v>3.1688900000000002</v>
@@ -4957,7 +4968,7 @@
         <v>20.919599999999999</v>
       </c>
       <c r="T53">
-        <v>4.6616400000000002E-2</v>
+        <v>0.046616400000000002</v>
       </c>
       <c r="U53">
         <v>4.0779800000000002</v>
@@ -4978,33 +4989,33 @@
         <v>3.0477400000000001</v>
       </c>
       <c r="AA53">
-        <v>35.22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+        <v>35.219999999999999</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="D54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H54">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -5016,7 +5027,7 @@
         <v>0.01</v>
       </c>
       <c r="L54">
-        <v>8.1019659999999993E-2</v>
+        <v>0.081019659999999993</v>
       </c>
       <c r="M54" s="1">
         <v>3.170909</v>
@@ -5040,7 +5051,7 @@
         <v>75.020859999999999</v>
       </c>
       <c r="T54">
-        <v>7.3750579999999996E-2</v>
+        <v>0.073750579999999996</v>
       </c>
       <c r="U54">
         <v>4.2678929999999999</v>
@@ -5064,30 +5075,30 @@
         <v>140.73759999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="D55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -5099,7 +5110,7 @@
         <v>0.01</v>
       </c>
       <c r="L55">
-        <v>9.0123019999999998E-2</v>
+        <v>0.090123019999999998</v>
       </c>
       <c r="M55" s="1">
         <v>3.1907779999999999</v>
@@ -5147,30 +5158,30 @@
         <v>44.508049999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="D56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H56">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -5182,7 +5193,7 @@
         <v>0.01</v>
       </c>
       <c r="L56">
-        <v>6.4727960000000001E-2</v>
+        <v>0.064727960000000001</v>
       </c>
       <c r="M56" s="1">
         <v>3.1964649999999999</v>
@@ -5206,7 +5217,7 @@
         <v>73.706490000000002</v>
       </c>
       <c r="T56">
-        <v>7.9694230000000005E-2</v>
+        <v>0.079694230000000005</v>
       </c>
       <c r="U56">
         <v>4.112565</v>
@@ -5230,30 +5241,30 @@
         <v>66.055009999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="D57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -5265,7 +5276,7 @@
         <v>0.01</v>
       </c>
       <c r="L57">
-        <v>4.4701879999999999E-2</v>
+        <v>0.044701879999999999</v>
       </c>
       <c r="M57" s="1">
         <v>3.423889</v>
@@ -5289,7 +5300,7 @@
         <v>21.829429999999999</v>
       </c>
       <c r="T57">
-        <v>4.888899E-2</v>
+        <v>0.04888899</v>
       </c>
       <c r="U57">
         <v>4.8717759999999997</v>
@@ -5313,30 +5324,30 @@
         <v>51.771070000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="D58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H58">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -5348,7 +5359,7 @@
         <v>0.01</v>
       </c>
       <c r="L58">
-        <v>6.1110999999999999E-2</v>
+        <v>0.061110999999999999</v>
       </c>
       <c r="M58" s="1">
         <v>3.4256950000000002</v>
@@ -5372,7 +5383,7 @@
         <v>21.834119999999999</v>
       </c>
       <c r="T58">
-        <v>8.1241740000000007E-2</v>
+        <v>0.081241740000000007</v>
       </c>
       <c r="U58">
         <v>4.7639199999999997</v>
@@ -5396,30 +5407,30 @@
         <v>102.3763</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="D59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H59">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I59">
         <v>4</v>
@@ -5431,7 +5442,7 @@
         <v>0.01</v>
       </c>
       <c r="L59">
-        <v>6.3607689999999995E-2</v>
+        <v>0.063607689999999995</v>
       </c>
       <c r="M59" s="1">
         <v>3.4311470000000002</v>
@@ -5455,7 +5466,7 @@
         <v>21.981159999999999</v>
       </c>
       <c r="T59">
-        <v>6.3953960000000004E-2</v>
+        <v>0.063953960000000004</v>
       </c>
       <c r="U59">
         <v>4.736694</v>
@@ -5479,30 +5490,30 @@
         <v>102.68899999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="E60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H60">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I60">
         <v>6</v>
@@ -5514,7 +5525,7 @@
         <v>0.01</v>
       </c>
       <c r="L60">
-        <v>7.5918840000000001E-2</v>
+        <v>0.075918840000000001</v>
       </c>
       <c r="M60" s="1">
         <v>3.4810660000000002</v>
@@ -5538,7 +5549,7 @@
         <v>37.457940000000001</v>
       </c>
       <c r="T60">
-        <v>9.8183419999999993E-2</v>
+        <v>0.098183419999999993</v>
       </c>
       <c r="U60">
         <v>4.4112070000000001</v>
@@ -5562,30 +5573,30 @@
         <v>36.509120000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="D61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H61">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -5597,7 +5608,7 @@
         <v>0.01</v>
       </c>
       <c r="L61">
-        <v>9.3505930000000008E-3</v>
+        <v>0.0093505930000000008</v>
       </c>
       <c r="M61" s="1">
         <v>3.5314610000000002</v>
@@ -5621,7 +5632,7 @@
         <v>38.095649999999999</v>
       </c>
       <c r="T61">
-        <v>1.220109E-2</v>
+        <v>0.01220109</v>
       </c>
       <c r="U61">
         <v>4.7246230000000002</v>
@@ -5645,30 +5656,30 @@
         <v>54.511499999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="D62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H62">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -5680,7 +5691,7 @@
         <v>0.01</v>
       </c>
       <c r="L62">
-        <v>3.8890729999999998E-2</v>
+        <v>0.038890729999999998</v>
       </c>
       <c r="M62" s="1">
         <v>3.5441379999999998</v>
@@ -5704,7 +5715,7 @@
         <v>20.929310000000001</v>
       </c>
       <c r="T62">
-        <v>4.3274449999999999E-2</v>
+        <v>0.043274449999999999</v>
       </c>
       <c r="U62">
         <v>5.2318040000000003</v>
@@ -5728,30 +5739,30 @@
         <v>142.91589999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="D63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H63">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -5763,7 +5774,7 @@
         <v>0.01</v>
       </c>
       <c r="L63">
-        <v>8.3142949999999993E-2</v>
+        <v>0.083142949999999993</v>
       </c>
       <c r="M63" s="1">
         <v>3.5523030000000002</v>
@@ -5787,7 +5798,7 @@
         <v>46.676659999999998</v>
       </c>
       <c r="T63">
-        <v>8.7009230000000007E-2</v>
+        <v>0.087009230000000007</v>
       </c>
       <c r="U63">
         <v>4.688815</v>
@@ -5811,30 +5822,30 @@
         <v>117.7833</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="D64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H64">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -5846,7 +5857,7 @@
         <v>0.01</v>
       </c>
       <c r="L64">
-        <v>4.1398619999999997E-2</v>
+        <v>0.041398619999999997</v>
       </c>
       <c r="M64" s="1">
         <v>3.5566469999999999</v>
@@ -5870,7 +5881,7 @@
         <v>31.40352</v>
       </c>
       <c r="T64">
-        <v>5.1167740000000003E-2</v>
+        <v>0.051167740000000003</v>
       </c>
       <c r="U64">
         <v>4.6850959999999997</v>
@@ -5894,30 +5905,30 @@
         <v>120.886</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="D65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H65">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -5929,78 +5940,78 @@
         <v>0.01</v>
       </c>
       <c r="L65">
-        <v>2.7427553726538781E-2</v>
+        <v>0.027427549999999998</v>
       </c>
       <c r="M65" s="1">
-        <v>3.6227699393742916</v>
+        <v>3.62277</v>
       </c>
       <c r="N65" s="1">
-        <v>2.2281742426893372</v>
+        <v>2.2281740000000001</v>
       </c>
       <c r="O65" s="1">
-        <v>2.4785369727894677</v>
+        <v>2.4785370000000002</v>
       </c>
       <c r="P65" s="1">
-        <v>0.6212527287215911</v>
+        <v>0.62125269999999999</v>
       </c>
       <c r="Q65" s="1">
-        <v>9.1126243164674392</v>
+        <v>9.1126240000000003</v>
       </c>
       <c r="R65">
-        <v>2.5752501220608335</v>
+        <v>2.57525</v>
       </c>
       <c r="S65">
-        <v>26.836023858636448</v>
+        <v>26.836020000000001</v>
       </c>
       <c r="T65">
-        <v>3.0427508978582377E-2</v>
+        <v>0.030427510000000001</v>
       </c>
       <c r="U65">
-        <v>4.6069173536934143</v>
+        <v>4.6069170000000002</v>
       </c>
       <c r="V65">
-        <v>2.8315282216477184</v>
+        <v>2.831528</v>
       </c>
       <c r="W65">
-        <v>3.1884151752729326</v>
+        <v>3.188415</v>
       </c>
       <c r="X65">
-        <v>0.74265611227579642</v>
+        <v>0.74265610000000004</v>
       </c>
       <c r="Y65">
-        <v>11.627305394482446</v>
+        <v>11.62731</v>
       </c>
       <c r="Z65">
-        <v>3.2438039963116712</v>
+        <v>3.2438039999999999</v>
       </c>
       <c r="AA65">
-        <v>48.952720915577956</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+        <v>48.952719999999999</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="D66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H66">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -6012,7 +6023,7 @@
         <v>0.01</v>
       </c>
       <c r="L66">
-        <v>9.0093909999999999E-2</v>
+        <v>0.090093909999999999</v>
       </c>
       <c r="M66" s="1">
         <v>3.643805</v>
@@ -6036,7 +6047,7 @@
         <v>35.303260000000002</v>
       </c>
       <c r="T66">
-        <v>8.1923419999999997E-2</v>
+        <v>0.081923419999999997</v>
       </c>
       <c r="U66">
         <v>4.7360199999999999</v>
@@ -6060,30 +6071,30 @@
         <v>76.870069999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="D67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H67">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -6095,7 +6106,7 @@
         <v>0.01</v>
       </c>
       <c r="L67">
-        <v>4.7471119999999999E-2</v>
+        <v>0.047471119999999999</v>
       </c>
       <c r="M67" s="1">
         <v>3.665003</v>
@@ -6119,7 +6130,7 @@
         <v>29.963920000000002</v>
       </c>
       <c r="T67">
-        <v>4.6505820000000003E-2</v>
+        <v>0.046505820000000003</v>
       </c>
       <c r="U67">
         <v>4.7439650000000002</v>
@@ -6143,30 +6154,30 @@
         <v>49.610930000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="D68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H68">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I68">
         <v>4</v>
@@ -6178,7 +6189,7 @@
         <v>0.01</v>
       </c>
       <c r="L68">
-        <v>5.1271700000000003E-2</v>
+        <v>0.051271700000000003</v>
       </c>
       <c r="M68" s="1">
         <v>3.6727280000000002</v>
@@ -6202,7 +6213,7 @@
         <v>55.949660000000002</v>
       </c>
       <c r="T68">
-        <v>4.9342499999999997E-2</v>
+        <v>0.049342499999999997</v>
       </c>
       <c r="U68">
         <v>4.6722469999999996</v>
@@ -6226,30 +6237,30 @@
         <v>62.598019999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="D69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H69">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -6261,7 +6272,7 @@
         <v>0.01</v>
       </c>
       <c r="L69">
-        <v>5.4850370000000002E-2</v>
+        <v>0.054850370000000002</v>
       </c>
       <c r="M69" s="1">
         <v>3.6748029999999998</v>
@@ -6285,7 +6296,7 @@
         <v>32.11835</v>
       </c>
       <c r="T69">
-        <v>5.0743650000000001E-2</v>
+        <v>0.050743650000000001</v>
       </c>
       <c r="U69">
         <v>4.6075299999999997</v>
@@ -6309,30 +6320,30 @@
         <v>40.947800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="D70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H70">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -6344,7 +6355,7 @@
         <v>0.01</v>
       </c>
       <c r="L70">
-        <v>4.064649E-2</v>
+        <v>0.04064649</v>
       </c>
       <c r="M70" s="1">
         <v>3.6949179999999999</v>
@@ -6368,7 +6379,7 @@
         <v>27.582380000000001</v>
       </c>
       <c r="T70">
-        <v>3.7229480000000002E-2</v>
+        <v>0.037229480000000002</v>
       </c>
       <c r="U70">
         <v>5.243938</v>
@@ -6392,30 +6403,30 @@
         <v>124.9492</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="D71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -6427,7 +6438,7 @@
         <v>0.01</v>
       </c>
       <c r="L71">
-        <v>6.7920690000000006E-2</v>
+        <v>0.067920690000000006</v>
       </c>
       <c r="M71" s="1">
         <v>3.7175790000000002</v>
@@ -6451,7 +6462,7 @@
         <v>41.418529999999997</v>
       </c>
       <c r="T71">
-        <v>6.2556790000000001E-2</v>
+        <v>0.062556790000000001</v>
       </c>
       <c r="U71">
         <v>4.8503579999999999</v>
@@ -6475,30 +6486,30 @@
         <v>87.01491</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="D72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H72">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -6510,7 +6521,7 @@
         <v>0.01</v>
       </c>
       <c r="L72">
-        <v>3.236526E-2</v>
+        <v>0.03236526</v>
       </c>
       <c r="M72" s="1">
         <v>3.724907</v>
@@ -6534,7 +6545,7 @@
         <v>41.703530000000001</v>
       </c>
       <c r="T72">
-        <v>4.7586450000000002E-2</v>
+        <v>0.047586450000000002</v>
       </c>
       <c r="U72">
         <v>4.9665410000000003</v>
@@ -6558,30 +6569,30 @@
         <v>120.0635</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="D73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H73">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -6593,7 +6604,7 @@
         <v>0.01</v>
       </c>
       <c r="L73">
-        <v>6.8015699999999998E-2</v>
+        <v>0.068015699999999998</v>
       </c>
       <c r="M73" s="1">
         <v>3.7414480000000001</v>
@@ -6617,7 +6628,7 @@
         <v>67.254440000000002</v>
       </c>
       <c r="T73">
-        <v>8.8806220000000005E-2</v>
+        <v>0.088806220000000005</v>
       </c>
       <c r="U73">
         <v>5.0030150000000004</v>
@@ -6641,30 +6652,30 @@
         <v>123.1828</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="D74" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H74">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -6676,7 +6687,7 @@
         <v>0.01</v>
       </c>
       <c r="L74">
-        <v>6.0807809999999997E-2</v>
+        <v>0.060807809999999997</v>
       </c>
       <c r="M74" s="1">
         <v>3.7517049999999998</v>
@@ -6700,7 +6711,7 @@
         <v>30.056909999999998</v>
       </c>
       <c r="T74">
-        <v>6.4802849999999995E-2</v>
+        <v>0.064802849999999995</v>
       </c>
       <c r="U74">
         <v>5.4999209999999996</v>
@@ -6724,30 +6735,30 @@
         <v>110.51730000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="D75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H75">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -6759,7 +6770,7 @@
         <v>0.01</v>
       </c>
       <c r="L75">
-        <v>6.2283020000000001E-2</v>
+        <v>0.062283020000000001</v>
       </c>
       <c r="M75" s="1">
         <v>3.7646959999999998</v>
@@ -6783,7 +6794,7 @@
         <v>32.262090000000001</v>
       </c>
       <c r="T75">
-        <v>6.9383169999999994E-2</v>
+        <v>0.069383169999999994</v>
       </c>
       <c r="U75">
         <v>5.9102980000000001</v>
@@ -6807,30 +6818,30 @@
         <v>122.30119999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="D76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I76">
         <v>4</v>
@@ -6842,7 +6853,7 @@
         <v>0.01</v>
       </c>
       <c r="L76">
-        <v>5.2365380000000003E-2</v>
+        <v>0.052365380000000003</v>
       </c>
       <c r="M76" s="1">
         <v>3.7871980000000001</v>
@@ -6866,7 +6877,7 @@
         <v>42.755949999999999</v>
       </c>
       <c r="T76">
-        <v>4.990083E-2</v>
+        <v>0.04990083</v>
       </c>
       <c r="U76">
         <v>4.8386129999999996</v>
@@ -6890,30 +6901,30 @@
         <v>88.547039999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="D77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H77">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -6925,7 +6936,7 @@
         <v>0.01</v>
       </c>
       <c r="L77">
-        <v>9.8606669999999993E-2</v>
+        <v>0.098606669999999993</v>
       </c>
       <c r="M77" s="1">
         <v>3.8313039999999998</v>
@@ -6949,7 +6960,7 @@
         <v>43.677489999999999</v>
       </c>
       <c r="T77">
-        <v>9.9584270000000003E-2</v>
+        <v>0.099584270000000003</v>
       </c>
       <c r="U77">
         <v>5.0224710000000004</v>
@@ -6973,30 +6984,30 @@
         <v>108.7895</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="D78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H78">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -7008,7 +7019,7 @@
         <v>0.01</v>
       </c>
       <c r="L78">
-        <v>3.9434169999999998E-2</v>
+        <v>0.039434169999999998</v>
       </c>
       <c r="M78" s="1">
         <v>3.8394840000000001</v>
@@ -7032,7 +7043,7 @@
         <v>31.123480000000001</v>
       </c>
       <c r="T78">
-        <v>5.4486779999999999E-2</v>
+        <v>0.054486779999999999</v>
       </c>
       <c r="U78">
         <v>5.2100609999999996</v>
@@ -7056,30 +7067,30 @@
         <v>114.1215</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="D79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H79">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -7091,7 +7102,7 @@
         <v>0.01</v>
       </c>
       <c r="L79">
-        <v>6.1326039999999998E-2</v>
+        <v>0.061326039999999998</v>
       </c>
       <c r="M79" s="1">
         <v>3.845942</v>
@@ -7115,7 +7126,7 @@
         <v>26.51915</v>
       </c>
       <c r="T79">
-        <v>6.8131949999999997E-2</v>
+        <v>0.068131949999999997</v>
       </c>
       <c r="U79">
         <v>4.9847460000000003</v>
@@ -7139,30 +7150,30 @@
         <v>111.4562</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="D80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H80">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -7174,7 +7185,7 @@
         <v>0.01</v>
       </c>
       <c r="L80">
-        <v>6.7109409999999994E-2</v>
+        <v>0.067109409999999994</v>
       </c>
       <c r="M80" s="1">
         <v>3.8485490000000002</v>
@@ -7198,7 +7209,7 @@
         <v>37.340739999999997</v>
       </c>
       <c r="T80">
-        <v>8.9358560000000004E-2</v>
+        <v>0.089358560000000004</v>
       </c>
       <c r="U80">
         <v>5.1187690000000003</v>
@@ -7222,30 +7233,30 @@
         <v>122.82299999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="D81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H81">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I81">
         <v>4</v>
@@ -7257,7 +7268,7 @@
         <v>0.01</v>
       </c>
       <c r="L81">
-        <v>1.0780690000000001E-2</v>
+        <v>0.010780690000000001</v>
       </c>
       <c r="M81" s="1">
         <v>3.869815</v>
@@ -7281,7 +7292,7 @@
         <v>67.427599999999998</v>
       </c>
       <c r="T81">
-        <v>1.0883179999999999E-2</v>
+        <v>0.010883179999999999</v>
       </c>
       <c r="U81">
         <v>5.2451840000000001</v>
@@ -7305,30 +7316,30 @@
         <v>118.2791</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="D82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H82">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -7340,7 +7351,7 @@
         <v>0.01</v>
       </c>
       <c r="L82">
-        <v>3.606583E-2</v>
+        <v>0.03606583</v>
       </c>
       <c r="M82" s="1">
         <v>3.8773680000000001</v>
@@ -7364,7 +7375,7 @@
         <v>43.376429999999999</v>
       </c>
       <c r="T82">
-        <v>5.1556589999999999E-2</v>
+        <v>0.051556589999999999</v>
       </c>
       <c r="U82">
         <v>5.0382800000000003</v>
@@ -7388,30 +7399,30 @@
         <v>109.8385</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="D83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H83">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -7423,7 +7434,7 @@
         <v>0.01</v>
       </c>
       <c r="L83">
-        <v>4.8585129999999997E-2</v>
+        <v>0.048585129999999997</v>
       </c>
       <c r="M83" s="1">
         <v>3.886717</v>
@@ -7447,7 +7458,7 @@
         <v>40.625709999999998</v>
       </c>
       <c r="T83">
-        <v>5.5380980000000003E-2</v>
+        <v>0.055380980000000003</v>
       </c>
       <c r="U83">
         <v>5.05037</v>
@@ -7471,30 +7482,30 @@
         <v>123.2187</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="D84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H84">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -7554,30 +7565,30 @@
         <v>103.0909</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="D85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H85">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I85">
         <v>4</v>
@@ -7589,7 +7600,7 @@
         <v>0.01</v>
       </c>
       <c r="L85">
-        <v>4.5893959999999998E-2</v>
+        <v>0.045893959999999998</v>
       </c>
       <c r="M85" s="1">
         <v>3.9025970000000001</v>
@@ -7613,7 +7624,7 @@
         <v>44.596469999999997</v>
       </c>
       <c r="T85">
-        <v>4.1977279999999999E-2</v>
+        <v>0.041977279999999999</v>
       </c>
       <c r="U85">
         <v>4.9100200000000003</v>
@@ -7637,30 +7648,30 @@
         <v>54.735610000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="D86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H86">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -7672,7 +7683,7 @@
         <v>0.01</v>
       </c>
       <c r="L86">
-        <v>7.0301569999999994E-2</v>
+        <v>0.070301569999999994</v>
       </c>
       <c r="M86" s="1">
         <v>3.95079</v>
@@ -7696,7 +7707,7 @@
         <v>38.812739999999998</v>
       </c>
       <c r="T86">
-        <v>7.3879420000000001E-2</v>
+        <v>0.073879420000000001</v>
       </c>
       <c r="U86">
         <v>5.1985159999999997</v>
@@ -7720,30 +7731,30 @@
         <v>83.220029999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="D87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H87">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -7755,7 +7766,7 @@
         <v>0.01</v>
       </c>
       <c r="L87">
-        <v>2.01899E-2</v>
+        <v>0.0201899</v>
       </c>
       <c r="M87" s="1">
         <v>3.968982</v>
@@ -7779,7 +7790,7 @@
         <v>54.974899999999998</v>
       </c>
       <c r="T87">
-        <v>2.8134610000000001E-2</v>
+        <v>0.028134610000000001</v>
       </c>
       <c r="U87">
         <v>5.1766889999999997</v>
@@ -7803,30 +7814,30 @@
         <v>118.73260000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="E88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H88">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I88">
         <v>4</v>
@@ -7838,7 +7849,7 @@
         <v>0.01</v>
       </c>
       <c r="L88">
-        <v>1.7506069999999999E-2</v>
+        <v>0.017506069999999999</v>
       </c>
       <c r="M88" s="1">
         <v>3.9770279999999998</v>
@@ -7862,7 +7873,7 @@
         <v>40.11759</v>
       </c>
       <c r="T88">
-        <v>1.9492880000000001E-2</v>
+        <v>0.019492880000000001</v>
       </c>
       <c r="U88">
         <v>5.6604320000000001</v>
@@ -7886,30 +7897,30 @@
         <v>123.19589999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="D89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H89">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -7921,7 +7932,7 @@
         <v>0.01</v>
       </c>
       <c r="L89">
-        <v>7.4761320000000006E-2</v>
+        <v>0.074761320000000006</v>
       </c>
       <c r="M89" s="1">
         <v>4.0087830000000002</v>
@@ -7945,7 +7956,7 @@
         <v>53.38599</v>
       </c>
       <c r="T89">
-        <v>9.8153080000000004E-2</v>
+        <v>0.098153080000000004</v>
       </c>
       <c r="U89">
         <v>5.2248330000000003</v>
@@ -7969,30 +7980,30 @@
         <v>118.5732</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="E90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H90">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -8004,7 +8015,7 @@
         <v>0.01</v>
       </c>
       <c r="L90">
-        <v>2.2578689999999998E-2</v>
+        <v>0.022578689999999998</v>
       </c>
       <c r="M90" s="1">
         <v>4.0166930000000001</v>
@@ -8028,7 +8039,7 @@
         <v>30.531009999999998</v>
       </c>
       <c r="T90">
-        <v>2.8724759999999998E-2</v>
+        <v>0.028724759999999998</v>
       </c>
       <c r="U90">
         <v>5.5023260000000001</v>
@@ -8052,30 +8063,30 @@
         <v>124.4766</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="E91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H91">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -8087,7 +8098,7 @@
         <v>0.01</v>
       </c>
       <c r="L91">
-        <v>4.1636859999999998E-2</v>
+        <v>0.041636859999999998</v>
       </c>
       <c r="M91" s="1">
         <v>4.0182700000000002</v>
@@ -8111,7 +8122,7 @@
         <v>38.350969999999997</v>
       </c>
       <c r="T91">
-        <v>5.799754E-2</v>
+        <v>0.05799754</v>
       </c>
       <c r="U91">
         <v>6.0306280000000001</v>
@@ -8135,30 +8146,30 @@
         <v>119.5758</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="D92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H92">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I92">
         <v>4</v>
@@ -8170,7 +8181,7 @@
         <v>0.01</v>
       </c>
       <c r="L92">
-        <v>4.1461980000000002E-2</v>
+        <v>0.041461980000000002</v>
       </c>
       <c r="M92" s="1">
         <v>4.0292960000000004</v>
@@ -8194,7 +8205,7 @@
         <v>35.263030000000001</v>
       </c>
       <c r="T92">
-        <v>4.2600560000000003E-2</v>
+        <v>0.042600560000000003</v>
       </c>
       <c r="U92">
         <v>5.115863</v>
@@ -8218,30 +8229,30 @@
         <v>42.982309999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="E93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H93">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -8253,7 +8264,7 @@
         <v>0.01</v>
       </c>
       <c r="L93">
-        <v>3.9003080000000002E-2</v>
+        <v>0.039003080000000002</v>
       </c>
       <c r="M93" s="1">
         <v>4.0419429999999998</v>
@@ -8277,7 +8288,7 @@
         <v>31.71968</v>
       </c>
       <c r="T93">
-        <v>5.4231069999999999E-2</v>
+        <v>0.054231069999999999</v>
       </c>
       <c r="U93">
         <v>5.7462650000000002</v>
@@ -8301,30 +8312,30 @@
         <v>116.1949</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="D94" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H94">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -8336,7 +8347,7 @@
         <v>0.01</v>
       </c>
       <c r="L94">
-        <v>8.8885220000000001E-2</v>
+        <v>0.088885220000000001</v>
       </c>
       <c r="M94" s="1">
         <v>4.0532360000000001</v>
@@ -8384,30 +8395,30 @@
         <v>105.61920000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="D95" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H95">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -8419,7 +8430,7 @@
         <v>0.01</v>
       </c>
       <c r="L95">
-        <v>1.2172840000000001E-2</v>
+        <v>0.012172840000000001</v>
       </c>
       <c r="M95" s="1">
         <v>4.0765419999999999</v>
@@ -8443,7 +8454,7 @@
         <v>31.214510000000001</v>
       </c>
       <c r="T95">
-        <v>1.0992450000000001E-2</v>
+        <v>0.010992450000000001</v>
       </c>
       <c r="U95">
         <v>6.4029920000000002</v>
@@ -8467,30 +8478,30 @@
         <v>121.6075</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="D96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H96">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I96">
         <v>4</v>
@@ -8502,7 +8513,7 @@
         <v>0.01</v>
       </c>
       <c r="L96">
-        <v>9.6977640000000004E-2</v>
+        <v>0.096977640000000004</v>
       </c>
       <c r="M96" s="1">
         <v>4.1077219999999999</v>
@@ -8526,7 +8537,7 @@
         <v>79.97775</v>
       </c>
       <c r="T96">
-        <v>9.7065979999999996E-2</v>
+        <v>0.097065979999999996</v>
       </c>
       <c r="U96">
         <v>5.3308960000000001</v>
@@ -8550,30 +8561,30 @@
         <v>137.3092</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="D97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H97">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I97">
         <v>4</v>
@@ -8633,30 +8644,30 @@
         <v>86.935450000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="D98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H98">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -8668,7 +8679,7 @@
         <v>0.01</v>
       </c>
       <c r="L98">
-        <v>7.0255579999999998E-2</v>
+        <v>0.070255579999999998</v>
       </c>
       <c r="M98" s="1">
         <v>4.1749869999999998</v>
@@ -8692,7 +8703,7 @@
         <v>39.135919999999999</v>
       </c>
       <c r="T98">
-        <v>9.6010280000000003E-2</v>
+        <v>0.096010280000000003</v>
       </c>
       <c r="U98">
         <v>5.692094</v>
@@ -8716,30 +8727,30 @@
         <v>124.3639</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="D99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H99">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I99">
         <v>4</v>
@@ -8775,7 +8786,7 @@
         <v>62.218580000000003</v>
       </c>
       <c r="T99">
-        <v>9.6183870000000005E-2</v>
+        <v>0.096183870000000005</v>
       </c>
       <c r="U99">
         <v>5.7758039999999999</v>
@@ -8799,30 +8810,30 @@
         <v>122.46980000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="D100" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H100">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I100">
         <v>4</v>
@@ -8834,7 +8845,7 @@
         <v>0.01</v>
       </c>
       <c r="L100">
-        <v>5.962986E-2</v>
+        <v>0.05962986</v>
       </c>
       <c r="M100" s="1">
         <v>4.224145</v>
@@ -8858,7 +8869,7 @@
         <v>28.290489999999998</v>
       </c>
       <c r="T100">
-        <v>8.6453600000000005E-2</v>
+        <v>0.086453600000000005</v>
       </c>
       <c r="U100">
         <v>5.8109310000000001</v>
@@ -8882,30 +8893,30 @@
         <v>124.78449999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="D101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H101">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I101">
         <v>4</v>
@@ -8917,7 +8928,7 @@
         <v>0.01</v>
       </c>
       <c r="L101">
-        <v>6.7382999999999998E-2</v>
+        <v>0.067382999999999998</v>
       </c>
       <c r="M101" s="1">
         <v>4.4136600000000001</v>
@@ -8941,7 +8952,7 @@
         <v>36.137880000000003</v>
       </c>
       <c r="T101">
-        <v>8.792324E-2</v>
+        <v>0.08792324</v>
       </c>
       <c r="U101">
         <v>5.9723410000000001</v>
@@ -8965,30 +8976,30 @@
         <v>121.4905</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="D102" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H102">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -9000,7 +9011,7 @@
         <v>0.01</v>
       </c>
       <c r="L102">
-        <v>3.6572380000000002E-2</v>
+        <v>0.036572380000000002</v>
       </c>
       <c r="M102" s="1">
         <v>4.4577</v>
@@ -9024,7 +9035,7 @@
         <v>55.35389</v>
       </c>
       <c r="T102">
-        <v>4.2848820000000003E-2</v>
+        <v>0.042848820000000003</v>
       </c>
       <c r="U102">
         <v>6.4009669999999996</v>
@@ -9048,30 +9059,30 @@
         <v>119.4481</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="D103" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H103">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I103">
         <v>4</v>
@@ -9131,30 +9142,30 @@
         <v>126.7469</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="D104" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H104">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I104">
         <v>4</v>
@@ -9166,7 +9177,7 @@
         <v>0.01</v>
       </c>
       <c r="L104">
-        <v>8.7284769999999998E-2</v>
+        <v>0.087284769999999998</v>
       </c>
       <c r="M104" s="1">
         <v>4.6054560000000002</v>
@@ -9214,30 +9225,30 @@
         <v>118.5013</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="D105" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H105">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -9273,7 +9284,7 @@
         <v>37.893279999999997</v>
       </c>
       <c r="T105">
-        <v>9.9683259999999996E-2</v>
+        <v>0.099683259999999996</v>
       </c>
       <c r="U105">
         <v>6.7185040000000003</v>
@@ -9297,30 +9308,30 @@
         <v>119.89019999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="D106" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H106">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -9332,7 +9343,7 @@
         <v>0.01</v>
       </c>
       <c r="L106">
-        <v>9.2791600000000002E-2</v>
+        <v>0.092791600000000002</v>
       </c>
       <c r="M106" s="1">
         <v>5.0072780000000003</v>
@@ -9380,30 +9391,30 @@
         <v>113.9734</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="D107" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H107">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I107">
         <v>4</v>
@@ -9415,7 +9426,7 @@
         <v>0.01</v>
       </c>
       <c r="L107">
-        <v>4.1051999999999998E-2</v>
+        <v>0.041051999999999998</v>
       </c>
       <c r="M107" s="1">
         <v>5.124619</v>
@@ -9439,7 +9450,7 @@
         <v>68.428880000000007</v>
       </c>
       <c r="T107">
-        <v>5.1949769999999999E-2</v>
+        <v>0.051949769999999999</v>
       </c>
       <c r="U107">
         <v>6.8564910000000001</v>
@@ -9463,30 +9474,30 @@
         <v>135.19470000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="D108" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H108">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I108">
         <v>4</v>
@@ -9498,7 +9509,7 @@
         <v>0.01</v>
       </c>
       <c r="L108">
-        <v>7.5798530000000003E-2</v>
+        <v>0.075798530000000003</v>
       </c>
       <c r="M108" s="1">
         <v>5.1700179999999998</v>
@@ -9522,7 +9533,7 @@
         <v>57.820900000000002</v>
       </c>
       <c r="T108">
-        <v>9.2317029999999994E-2</v>
+        <v>0.092317029999999994</v>
       </c>
       <c r="U108">
         <v>7.0035340000000001</v>
@@ -9546,30 +9557,30 @@
         <v>124.1741</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="D109" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H109">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I109">
         <v>4</v>
@@ -9629,30 +9640,30 @@
         <v>122.5598</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="D110" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H110">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I110">
         <v>4</v>
@@ -9664,7 +9675,7 @@
         <v>0.01</v>
       </c>
       <c r="L110">
-        <v>2.315768E-2</v>
+        <v>0.02315768</v>
       </c>
       <c r="M110" s="1">
         <v>5.4023890000000003</v>
@@ -9688,7 +9699,7 @@
         <v>32.453060000000001</v>
       </c>
       <c r="T110">
-        <v>3.4582059999999998E-2</v>
+        <v>0.034582059999999998</v>
       </c>
       <c r="U110">
         <v>8.1116630000000001</v>
@@ -9712,30 +9723,30 @@
         <v>120.77460000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="D111" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H111">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -9747,7 +9758,7 @@
         <v>0.01</v>
       </c>
       <c r="L111">
-        <v>4.1080609999999997E-2</v>
+        <v>0.041080609999999997</v>
       </c>
       <c r="M111" s="1">
         <v>5.4228670000000001</v>
@@ -9771,7 +9782,7 @@
         <v>85.371219999999994</v>
       </c>
       <c r="T111">
-        <v>4.8078089999999997E-2</v>
+        <v>0.048078089999999997</v>
       </c>
       <c r="U111">
         <v>7.123615</v>
@@ -9795,30 +9806,30 @@
         <v>134.34630000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="D112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H112">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I112">
         <v>4</v>
@@ -9830,7 +9841,7 @@
         <v>0.01</v>
       </c>
       <c r="L112">
-        <v>6.8803020000000006E-2</v>
+        <v>0.068803020000000006</v>
       </c>
       <c r="M112" s="1">
         <v>5.5235260000000004</v>
@@ -9854,7 +9865,7 @@
         <v>50.228299999999997</v>
       </c>
       <c r="T112">
-        <v>6.7422860000000001E-2</v>
+        <v>0.067422860000000001</v>
       </c>
       <c r="U112">
         <v>7.5406300000000002</v>
@@ -9878,30 +9889,30 @@
         <v>119.3873</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="D113" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H113">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -9959,6 +9970,172 @@
       </c>
       <c r="AA113">
         <v>125.24169999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>60</v>
+      </c>
+      <c r="K114">
+        <v>0.01</v>
+      </c>
+      <c r="L114">
+        <v>0.077933790000000003</v>
+      </c>
+      <c r="M114" s="1">
+        <v>3.646811</v>
+      </c>
+      <c r="N114" s="1">
+        <v>2.2945500000000001</v>
+      </c>
+      <c r="O114" s="1">
+        <v>2.5381309999999999</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0.64982249999999997</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>9.0026530000000005</v>
+      </c>
+      <c r="R114">
+        <v>2.6233610000000001</v>
+      </c>
+      <c r="S114">
+        <v>47.322740000000003</v>
+      </c>
+      <c r="T114">
+        <v>0.092246869999999995</v>
+      </c>
+      <c r="U114">
+        <v>4.8585739999999999</v>
+      </c>
+      <c r="V114">
+        <v>2.86713</v>
+      </c>
+      <c r="W114">
+        <v>3.1892239999999998</v>
+      </c>
+      <c r="X114">
+        <v>0.79162169999999998</v>
+      </c>
+      <c r="Y114">
+        <v>12.51919</v>
+      </c>
+      <c r="Z114">
+        <v>3.3786800000000001</v>
+      </c>
+      <c r="AA114">
+        <v>109.8835</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+      <c r="J115">
+        <v>60</v>
+      </c>
+      <c r="K115">
+        <v>0.01</v>
+      </c>
+      <c r="L115">
+        <v>0.076961286439043888</v>
+      </c>
+      <c r="M115" s="1">
+        <v>3.677097419999376</v>
+      </c>
+      <c r="N115" s="1">
+        <v>2.1418786063611321</v>
+      </c>
+      <c r="O115" s="1">
+        <v>2.4517649065172114</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.62281262009963156</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>9.3683665065779227</v>
+      </c>
+      <c r="R115">
+        <v>2.5725274530464555</v>
+      </c>
+      <c r="S115">
+        <v>100.29995960567241</v>
+      </c>
+      <c r="T115">
+        <v>0.077963966992450284</v>
+      </c>
+      <c r="U115">
+        <v>4.7052178090104571</v>
+      </c>
+      <c r="V115">
+        <v>2.7095351637639666</v>
+      </c>
+      <c r="W115">
+        <v>3.1188719938720189</v>
+      </c>
+      <c r="X115">
+        <v>0.73423094869344985</v>
+      </c>
+      <c r="Y115">
+        <v>12.210286728230461</v>
+      </c>
+      <c r="Z115">
+        <v>3.2389640272717739</v>
+      </c>
+      <c r="AA115">
+        <v>132.16353104017455</v>
       </c>
     </row>
   </sheetData>
